--- a/data/trans_orig/DCD_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/DCD_R-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB73884C-6BCB-4A38-AD1A-8A965CA21328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B9574417-2ACF-4EF5-A27B-F115A2844CD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A6C52E0D-49AA-4F16-B521-80E9AD3937BC}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{AB1E5ECC-8EC8-49FB-A4E7-49CBA844FD24}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -74,28 +74,28 @@
     <t>12,08%</t>
   </si>
   <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
   </si>
   <si>
     <t>18,88%</t>
   </si>
   <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
   </si>
   <si>
     <t>15,56%</t>
   </si>
   <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>87,92%</t>
   </si>
   <si>
-    <t>84,04%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
+    <t>83,53%</t>
+  </si>
+  <si>
+    <t>90,97%</t>
   </si>
   <si>
     <t>81,12%</t>
   </si>
   <si>
-    <t>77,33%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
+    <t>77,75%</t>
+  </si>
+  <si>
+    <t>84,45%</t>
   </si>
   <si>
     <t>84,44%</t>
   </si>
   <si>
-    <t>82,02%</t>
-  </si>
-  <si>
-    <t>86,91%</t>
+    <t>82,03%</t>
+  </si>
+  <si>
+    <t>86,84%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>12,62%</t>
   </si>
   <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
   </si>
   <si>
     <t>28,62%</t>
   </si>
   <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>32,15%</t>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>32,12%</t>
   </si>
   <si>
     <t>20,88%</t>
   </si>
   <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
   </si>
   <si>
     <t>87,38%</t>
   </si>
   <si>
-    <t>83,54%</t>
-  </si>
-  <si>
-    <t>90,37%</t>
+    <t>83,64%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
   </si>
   <si>
     <t>71,38%</t>
   </si>
   <si>
-    <t>67,85%</t>
-  </si>
-  <si>
-    <t>74,77%</t>
+    <t>67,88%</t>
+  </si>
+  <si>
+    <t>74,87%</t>
   </si>
   <si>
     <t>79,12%</t>
   </si>
   <si>
-    <t>76,27%</t>
-  </si>
-  <si>
-    <t>81,6%</t>
+    <t>76,59%</t>
+  </si>
+  <si>
+    <t>81,47%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -194,55 +194,55 @@
     <t>18,38%</t>
   </si>
   <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
   </si>
   <si>
     <t>29,98%</t>
   </si>
   <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>34,0%</t>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>33,87%</t>
   </si>
   <si>
     <t>24,61%</t>
   </si>
   <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>27,34%</t>
   </si>
   <si>
     <t>81,62%</t>
   </si>
   <si>
-    <t>77,63%</t>
-  </si>
-  <si>
-    <t>85,57%</t>
+    <t>77,43%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
   </si>
   <si>
     <t>70,02%</t>
   </si>
   <si>
-    <t>66,0%</t>
-  </si>
-  <si>
-    <t>73,68%</t>
+    <t>66,13%</t>
+  </si>
+  <si>
+    <t>73,81%</t>
   </si>
   <si>
     <t>75,39%</t>
   </si>
   <si>
-    <t>72,75%</t>
-  </si>
-  <si>
-    <t>78,14%</t>
+    <t>72,66%</t>
+  </si>
+  <si>
+    <t>78,03%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -251,49 +251,49 @@
     <t>16,84%</t>
   </si>
   <si>
-    <t>21,69%</t>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
   </si>
   <si>
     <t>26,98%</t>
   </si>
   <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>32,02%</t>
   </si>
   <si>
     <t>22,63%</t>
   </si>
   <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
+    <t>19,74%</t>
   </si>
   <si>
     <t>83,16%</t>
   </si>
   <si>
-    <t>78,31%</t>
+    <t>78,82%</t>
+  </si>
+  <si>
+    <t>87,21%</t>
   </si>
   <si>
     <t>73,02%</t>
   </si>
   <si>
-    <t>68,49%</t>
-  </si>
-  <si>
-    <t>77,32%</t>
+    <t>67,98%</t>
+  </si>
+  <si>
+    <t>77,41%</t>
   </si>
   <si>
     <t>77,37%</t>
   </si>
   <si>
-    <t>74,27%</t>
-  </si>
-  <si>
-    <t>80,44%</t>
+    <t>80,26%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -302,49 +302,49 @@
     <t>11,23%</t>
   </si>
   <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
   </si>
   <si>
     <t>15,3%</t>
   </si>
   <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
   </si>
   <si>
     <t>88,77%</t>
   </si>
   <si>
-    <t>84,68%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>77,64%</t>
-  </si>
-  <si>
-    <t>87,74%</t>
+    <t>84,49%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>76,83%</t>
+  </si>
+  <si>
+    <t>86,71%</t>
   </si>
   <si>
     <t>84,7%</t>
   </si>
   <si>
-    <t>81,43%</t>
-  </si>
-  <si>
-    <t>87,83%</t>
+    <t>81,65%</t>
+  </si>
+  <si>
+    <t>88,01%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -353,55 +353,55 @@
     <t>21,19%</t>
   </si>
   <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
   </si>
   <si>
     <t>35,65%</t>
   </si>
   <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>40,56%</t>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>40,05%</t>
   </si>
   <si>
     <t>28,4%</t>
   </si>
   <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
   </si>
   <si>
     <t>78,81%</t>
   </si>
   <si>
-    <t>74,36%</t>
-  </si>
-  <si>
-    <t>82,38%</t>
+    <t>73,63%</t>
+  </si>
+  <si>
+    <t>82,52%</t>
   </si>
   <si>
     <t>64,35%</t>
   </si>
   <si>
-    <t>59,44%</t>
-  </si>
-  <si>
-    <t>68,86%</t>
+    <t>59,95%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
   </si>
   <si>
     <t>71,6%</t>
   </si>
   <si>
-    <t>68,54%</t>
-  </si>
-  <si>
-    <t>74,92%</t>
+    <t>68,27%</t>
+  </si>
+  <si>
+    <t>74,42%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -410,55 +410,55 @@
     <t>17,08%</t>
   </si>
   <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
   </si>
   <si>
     <t>32,03%</t>
   </si>
   <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>38,5%</t>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>38,36%</t>
   </si>
   <si>
     <t>25,48%</t>
   </si>
   <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>28,77%</t>
   </si>
   <si>
     <t>82,92%</t>
   </si>
   <si>
-    <t>79,6%</t>
-  </si>
-  <si>
-    <t>85,98%</t>
+    <t>79,48%</t>
+  </si>
+  <si>
+    <t>85,77%</t>
   </si>
   <si>
     <t>67,97%</t>
   </si>
   <si>
-    <t>61,5%</t>
-  </si>
-  <si>
-    <t>80,5%</t>
+    <t>61,64%</t>
+  </si>
+  <si>
+    <t>81,29%</t>
   </si>
   <si>
     <t>74,52%</t>
   </si>
   <si>
-    <t>71,4%</t>
-  </si>
-  <si>
-    <t>80,7%</t>
+    <t>71,23%</t>
+  </si>
+  <si>
+    <t>80,4%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -467,109 +467,109 @@
     <t>10,39%</t>
   </si>
   <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
   </si>
   <si>
     <t>22,92%</t>
   </si>
   <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
   </si>
   <si>
     <t>16,69%</t>
   </si>
   <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
   </si>
   <si>
     <t>89,61%</t>
   </si>
   <si>
-    <t>87,49%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
+    <t>87,06%</t>
+  </si>
+  <si>
+    <t>91,76%</t>
   </si>
   <si>
     <t>77,08%</t>
   </si>
   <si>
-    <t>74,03%</t>
-  </si>
-  <si>
-    <t>79,58%</t>
+    <t>73,99%</t>
+  </si>
+  <si>
+    <t>79,63%</t>
   </si>
   <si>
     <t>83,31%</t>
   </si>
   <si>
-    <t>81,16%</t>
-  </si>
-  <si>
-    <t>85,33%</t>
+    <t>81,44%</t>
+  </si>
+  <si>
+    <t>85,39%</t>
   </si>
   <si>
     <t>14,41%</t>
   </si>
   <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
   </si>
   <si>
     <t>27,12%</t>
   </si>
   <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
   </si>
   <si>
     <t>21,16%</t>
   </si>
   <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
   </si>
   <si>
     <t>85,59%</t>
   </si>
   <si>
-    <t>84,12%</t>
-  </si>
-  <si>
-    <t>86,76%</t>
+    <t>84,28%</t>
+  </si>
+  <si>
+    <t>86,85%</t>
   </si>
   <si>
     <t>72,88%</t>
   </si>
   <si>
-    <t>71,28%</t>
-  </si>
-  <si>
-    <t>75,26%</t>
+    <t>71,25%</t>
+  </si>
+  <si>
+    <t>75,69%</t>
   </si>
   <si>
     <t>78,84%</t>
   </si>
   <si>
-    <t>77,89%</t>
-  </si>
-  <si>
-    <t>80,18%</t>
+    <t>77,85%</t>
+  </si>
+  <si>
+    <t>80,19%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -984,7 +984,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A64F35F-4837-49A3-8584-C25DF6CB4C62}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DE470F2-A227-4B4B-937C-7A05D9D7FB3E}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1576,10 +1576,10 @@
         <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>197</v>
@@ -1588,13 +1588,13 @@
         <v>115646</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>256</v>
@@ -1603,13 +1603,13 @@
         <v>169899</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1630,7 +1630,7 @@
         <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>402</v>
@@ -1639,13 +1639,13 @@
         <v>312910</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>635</v>
@@ -1654,10 +1654,10 @@
         <v>580897</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>85</v>
@@ -2375,7 +2375,7 @@
         <v>2219</v>
       </c>
       <c r="N28" s="7">
-        <v>1527989</v>
+        <v>1527988</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>166</v>
@@ -2477,7 +2477,7 @@
         <v>8743</v>
       </c>
       <c r="N30" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/DCD_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/DCD_R-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B9574417-2ACF-4EF5-A27B-F115A2844CD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{062354D1-7F26-49F3-B08A-067D0034DB42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{AB1E5ECC-8EC8-49FB-A4E7-49CBA844FD24}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C2BA289E-525D-4034-9B65-324377CE6555}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -984,7 +984,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DE470F2-A227-4B4B-937C-7A05D9D7FB3E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFF6F543-39F0-42B8-9494-4578C1BABD64}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/DCD_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/DCD_R-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{062354D1-7F26-49F3-B08A-067D0034DB42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2FBB38C4-4061-40E9-9BE0-AC163EF3FDB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C2BA289E-525D-4034-9B65-324377CE6555}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6FFEEF2F-163F-4420-BED7-8E9D49FA95BB}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -74,28 +74,28 @@
     <t>12,08%</t>
   </si>
   <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
   </si>
   <si>
     <t>18,88%</t>
   </si>
   <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
   </si>
   <si>
     <t>15,56%</t>
   </si>
   <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>87,92%</t>
   </si>
   <si>
-    <t>83,53%</t>
-  </si>
-  <si>
-    <t>90,97%</t>
+    <t>84,04%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
   </si>
   <si>
     <t>81,12%</t>
   </si>
   <si>
-    <t>77,75%</t>
-  </si>
-  <si>
-    <t>84,45%</t>
+    <t>77,33%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
   </si>
   <si>
     <t>84,44%</t>
   </si>
   <si>
-    <t>82,03%</t>
-  </si>
-  <si>
-    <t>86,84%</t>
+    <t>82,02%</t>
+  </si>
+  <si>
+    <t>86,91%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>12,62%</t>
   </si>
   <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
   </si>
   <si>
     <t>28,62%</t>
   </si>
   <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>32,12%</t>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>32,15%</t>
   </si>
   <si>
     <t>20,88%</t>
   </si>
   <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
   </si>
   <si>
     <t>87,38%</t>
   </si>
   <si>
-    <t>83,64%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
+    <t>83,54%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
   </si>
   <si>
     <t>71,38%</t>
   </si>
   <si>
-    <t>67,88%</t>
-  </si>
-  <si>
-    <t>74,87%</t>
+    <t>67,85%</t>
+  </si>
+  <si>
+    <t>74,77%</t>
   </si>
   <si>
     <t>79,12%</t>
   </si>
   <si>
-    <t>76,59%</t>
-  </si>
-  <si>
-    <t>81,47%</t>
+    <t>76,27%</t>
+  </si>
+  <si>
+    <t>81,6%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -194,55 +194,55 @@
     <t>18,38%</t>
   </si>
   <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
   </si>
   <si>
     <t>29,98%</t>
   </si>
   <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>33,87%</t>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>34,0%</t>
   </si>
   <si>
     <t>24,61%</t>
   </si>
   <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>27,34%</t>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
   </si>
   <si>
     <t>81,62%</t>
   </si>
   <si>
-    <t>77,43%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
+    <t>77,63%</t>
+  </si>
+  <si>
+    <t>85,57%</t>
   </si>
   <si>
     <t>70,02%</t>
   </si>
   <si>
-    <t>66,13%</t>
-  </si>
-  <si>
-    <t>73,81%</t>
+    <t>66,0%</t>
+  </si>
+  <si>
+    <t>73,68%</t>
   </si>
   <si>
     <t>75,39%</t>
   </si>
   <si>
-    <t>72,66%</t>
-  </si>
-  <si>
-    <t>78,03%</t>
+    <t>72,75%</t>
+  </si>
+  <si>
+    <t>78,14%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -251,49 +251,49 @@
     <t>16,84%</t>
   </si>
   <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
+    <t>21,69%</t>
   </si>
   <si>
     <t>26,98%</t>
   </si>
   <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>32,02%</t>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
   </si>
   <si>
     <t>22,63%</t>
   </si>
   <si>
-    <t>19,74%</t>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
   </si>
   <si>
     <t>83,16%</t>
   </si>
   <si>
-    <t>78,82%</t>
-  </si>
-  <si>
-    <t>87,21%</t>
+    <t>78,31%</t>
   </si>
   <si>
     <t>73,02%</t>
   </si>
   <si>
-    <t>67,98%</t>
-  </si>
-  <si>
-    <t>77,41%</t>
+    <t>68,49%</t>
+  </si>
+  <si>
+    <t>77,32%</t>
   </si>
   <si>
     <t>77,37%</t>
   </si>
   <si>
-    <t>80,26%</t>
+    <t>74,27%</t>
+  </si>
+  <si>
+    <t>80,44%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -302,49 +302,49 @@
     <t>11,23%</t>
   </si>
   <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
   </si>
   <si>
     <t>15,3%</t>
   </si>
   <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
   </si>
   <si>
     <t>88,77%</t>
   </si>
   <si>
-    <t>84,49%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>76,83%</t>
-  </si>
-  <si>
-    <t>86,71%</t>
+    <t>84,68%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>77,64%</t>
+  </si>
+  <si>
+    <t>87,74%</t>
   </si>
   <si>
     <t>84,7%</t>
   </si>
   <si>
-    <t>81,65%</t>
-  </si>
-  <si>
-    <t>88,01%</t>
+    <t>81,43%</t>
+  </si>
+  <si>
+    <t>87,83%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -353,55 +353,55 @@
     <t>21,19%</t>
   </si>
   <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
   </si>
   <si>
     <t>35,65%</t>
   </si>
   <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>40,05%</t>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>40,56%</t>
   </si>
   <si>
     <t>28,4%</t>
   </si>
   <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
   </si>
   <si>
     <t>78,81%</t>
   </si>
   <si>
-    <t>73,63%</t>
-  </si>
-  <si>
-    <t>82,52%</t>
+    <t>74,36%</t>
+  </si>
+  <si>
+    <t>82,38%</t>
   </si>
   <si>
     <t>64,35%</t>
   </si>
   <si>
-    <t>59,95%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
+    <t>59,44%</t>
+  </si>
+  <si>
+    <t>68,86%</t>
   </si>
   <si>
     <t>71,6%</t>
   </si>
   <si>
-    <t>68,27%</t>
-  </si>
-  <si>
-    <t>74,42%</t>
+    <t>68,54%</t>
+  </si>
+  <si>
+    <t>74,92%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -410,55 +410,55 @@
     <t>17,08%</t>
   </si>
   <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
   </si>
   <si>
     <t>32,03%</t>
   </si>
   <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>38,36%</t>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>38,5%</t>
   </si>
   <si>
     <t>25,48%</t>
   </si>
   <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>28,77%</t>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
   </si>
   <si>
     <t>82,92%</t>
   </si>
   <si>
-    <t>79,48%</t>
-  </si>
-  <si>
-    <t>85,77%</t>
+    <t>79,6%</t>
+  </si>
+  <si>
+    <t>85,98%</t>
   </si>
   <si>
     <t>67,97%</t>
   </si>
   <si>
-    <t>61,64%</t>
-  </si>
-  <si>
-    <t>81,29%</t>
+    <t>61,5%</t>
+  </si>
+  <si>
+    <t>80,5%</t>
   </si>
   <si>
     <t>74,52%</t>
   </si>
   <si>
-    <t>71,23%</t>
-  </si>
-  <si>
-    <t>80,4%</t>
+    <t>71,4%</t>
+  </si>
+  <si>
+    <t>80,7%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -467,109 +467,109 @@
     <t>10,39%</t>
   </si>
   <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
   </si>
   <si>
     <t>22,92%</t>
   </si>
   <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
   </si>
   <si>
     <t>16,69%</t>
   </si>
   <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
   </si>
   <si>
     <t>89,61%</t>
   </si>
   <si>
-    <t>87,06%</t>
-  </si>
-  <si>
-    <t>91,76%</t>
+    <t>87,49%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
   </si>
   <si>
     <t>77,08%</t>
   </si>
   <si>
-    <t>73,99%</t>
-  </si>
-  <si>
-    <t>79,63%</t>
+    <t>74,03%</t>
+  </si>
+  <si>
+    <t>79,58%</t>
   </si>
   <si>
     <t>83,31%</t>
   </si>
   <si>
-    <t>81,44%</t>
-  </si>
-  <si>
-    <t>85,39%</t>
+    <t>81,16%</t>
+  </si>
+  <si>
+    <t>85,33%</t>
   </si>
   <si>
     <t>14,41%</t>
   </si>
   <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
   </si>
   <si>
     <t>27,12%</t>
   </si>
   <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
   </si>
   <si>
     <t>21,16%</t>
   </si>
   <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
   </si>
   <si>
     <t>85,59%</t>
   </si>
   <si>
-    <t>84,28%</t>
-  </si>
-  <si>
-    <t>86,85%</t>
+    <t>84,12%</t>
+  </si>
+  <si>
+    <t>86,76%</t>
   </si>
   <si>
     <t>72,88%</t>
   </si>
   <si>
-    <t>71,25%</t>
-  </si>
-  <si>
-    <t>75,69%</t>
+    <t>71,28%</t>
+  </si>
+  <si>
+    <t>75,26%</t>
   </si>
   <si>
     <t>78,84%</t>
   </si>
   <si>
-    <t>77,85%</t>
-  </si>
-  <si>
-    <t>80,19%</t>
+    <t>77,89%</t>
+  </si>
+  <si>
+    <t>80,18%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -984,7 +984,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFF6F543-39F0-42B8-9494-4578C1BABD64}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B87F9CE-445A-42DB-9E65-8DA230777FEA}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1576,10 +1576,10 @@
         <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>197</v>
@@ -1588,13 +1588,13 @@
         <v>115646</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>256</v>
@@ -1603,13 +1603,13 @@
         <v>169899</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1630,7 +1630,7 @@
         <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="H14" s="7">
         <v>402</v>
@@ -1639,13 +1639,13 @@
         <v>312910</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>635</v>
@@ -1654,10 +1654,10 @@
         <v>580897</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>85</v>
@@ -2375,7 +2375,7 @@
         <v>2219</v>
       </c>
       <c r="N28" s="7">
-        <v>1527988</v>
+        <v>1527989</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>166</v>
@@ -2477,7 +2477,7 @@
         <v>8743</v>
       </c>
       <c r="N30" s="7">
-        <v>7220808</v>
+        <v>7220809</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/DCD_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/DCD_R-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2FBB38C4-4061-40E9-9BE0-AC163EF3FDB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{62F9851D-6F73-4A71-A3BF-73482DF3212C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6FFEEF2F-163F-4420-BED7-8E9D49FA95BB}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{88BCAA0A-94E0-4BDB-B44A-F8BA11BA8880}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -71,61 +71,61 @@
     <t>Sí</t>
   </si>
   <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>87,92%</t>
-  </si>
-  <si>
-    <t>84,04%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
-  </si>
-  <si>
-    <t>81,12%</t>
-  </si>
-  <si>
-    <t>77,33%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
-  </si>
-  <si>
-    <t>84,44%</t>
-  </si>
-  <si>
-    <t>82,02%</t>
-  </si>
-  <si>
-    <t>86,91%</t>
+    <t>88,64%</t>
+  </si>
+  <si>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>81,59%</t>
+  </si>
+  <si>
+    <t>77,82%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>85,25%</t>
+  </si>
+  <si>
+    <t>82,77%</t>
+  </si>
+  <si>
+    <t>87,62%</t>
   </si>
   <si>
     <t>100%</t>
@@ -134,442 +134,442 @@
     <t>Cadiz</t>
   </si>
   <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>32,15%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>87,38%</t>
-  </si>
-  <si>
-    <t>83,54%</t>
-  </si>
-  <si>
-    <t>90,37%</t>
-  </si>
-  <si>
-    <t>71,38%</t>
-  </si>
-  <si>
-    <t>67,85%</t>
-  </si>
-  <si>
-    <t>74,77%</t>
-  </si>
-  <si>
-    <t>79,12%</t>
-  </si>
-  <si>
-    <t>76,27%</t>
-  </si>
-  <si>
-    <t>81,6%</t>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>32,13%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>87,78%</t>
+  </si>
+  <si>
+    <t>83,96%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>71,44%</t>
+  </si>
+  <si>
+    <t>67,87%</t>
+  </si>
+  <si>
+    <t>74,76%</t>
+  </si>
+  <si>
+    <t>79,63%</t>
+  </si>
+  <si>
+    <t>76,87%</t>
+  </si>
+  <si>
+    <t>82,17%</t>
   </si>
   <si>
     <t>Cordoba</t>
   </si>
   <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>34,0%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>81,62%</t>
-  </si>
-  <si>
-    <t>77,63%</t>
-  </si>
-  <si>
-    <t>85,57%</t>
-  </si>
-  <si>
-    <t>70,02%</t>
-  </si>
-  <si>
-    <t>66,0%</t>
-  </si>
-  <si>
-    <t>73,68%</t>
-  </si>
-  <si>
-    <t>75,39%</t>
-  </si>
-  <si>
-    <t>72,75%</t>
-  </si>
-  <si>
-    <t>78,14%</t>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>33,73%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>82,09%</t>
+  </si>
+  <si>
+    <t>78,08%</t>
+  </si>
+  <si>
+    <t>85,95%</t>
+  </si>
+  <si>
+    <t>70,25%</t>
+  </si>
+  <si>
+    <t>66,27%</t>
+  </si>
+  <si>
+    <t>73,92%</t>
+  </si>
+  <si>
+    <t>75,88%</t>
+  </si>
+  <si>
+    <t>73,25%</t>
+  </si>
+  <si>
+    <t>78,6%</t>
   </si>
   <si>
     <t>Granada</t>
   </si>
   <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>83,16%</t>
-  </si>
-  <si>
-    <t>78,31%</t>
-  </si>
-  <si>
-    <t>73,02%</t>
-  </si>
-  <si>
-    <t>68,49%</t>
-  </si>
-  <si>
-    <t>77,32%</t>
-  </si>
-  <si>
-    <t>77,37%</t>
-  </si>
-  <si>
-    <t>74,27%</t>
-  </si>
-  <si>
-    <t>80,44%</t>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>83,55%</t>
+  </si>
+  <si>
+    <t>78,66%</t>
+  </si>
+  <si>
+    <t>87,83%</t>
+  </si>
+  <si>
+    <t>77,47%</t>
+  </si>
+  <si>
+    <t>71,33%</t>
+  </si>
+  <si>
+    <t>87,12%</t>
+  </si>
+  <si>
+    <t>79,88%</t>
+  </si>
+  <si>
+    <t>76,29%</t>
+  </si>
+  <si>
+    <t>85,05%</t>
   </si>
   <si>
     <t>Huelva</t>
   </si>
   <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>88,77%</t>
-  </si>
-  <si>
-    <t>84,68%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>77,64%</t>
-  </si>
-  <si>
-    <t>87,74%</t>
-  </si>
-  <si>
-    <t>84,7%</t>
-  </si>
-  <si>
-    <t>81,43%</t>
-  </si>
-  <si>
-    <t>87,83%</t>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>88,8%</t>
+  </si>
+  <si>
+    <t>84,71%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>83,26%</t>
+  </si>
+  <si>
+    <t>78,02%</t>
+  </si>
+  <si>
+    <t>91,37%</t>
+  </si>
+  <si>
+    <t>85,52%</t>
+  </si>
+  <si>
+    <t>82,34%</t>
+  </si>
+  <si>
+    <t>90,21%</t>
   </si>
   <si>
     <t>Jaen</t>
   </si>
   <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>35,65%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>40,56%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
-  </si>
-  <si>
-    <t>78,81%</t>
-  </si>
-  <si>
-    <t>74,36%</t>
-  </si>
-  <si>
-    <t>82,38%</t>
-  </si>
-  <si>
-    <t>64,35%</t>
-  </si>
-  <si>
-    <t>59,44%</t>
-  </si>
-  <si>
-    <t>68,86%</t>
-  </si>
-  <si>
-    <t>71,6%</t>
-  </si>
-  <si>
-    <t>68,54%</t>
-  </si>
-  <si>
-    <t>74,92%</t>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>35,58%</t>
+  </si>
+  <si>
+    <t>31,12%</t>
+  </si>
+  <si>
+    <t>40,49%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>31,08%</t>
+  </si>
+  <si>
+    <t>79,14%</t>
+  </si>
+  <si>
+    <t>74,67%</t>
+  </si>
+  <si>
+    <t>82,7%</t>
+  </si>
+  <si>
+    <t>64,42%</t>
+  </si>
+  <si>
+    <t>59,51%</t>
+  </si>
+  <si>
+    <t>68,88%</t>
+  </si>
+  <si>
+    <t>71,96%</t>
+  </si>
+  <si>
+    <t>68,92%</t>
+  </si>
+  <si>
+    <t>75,32%</t>
   </si>
   <si>
     <t>Malaga</t>
   </si>
   <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>38,5%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>79,6%</t>
-  </si>
-  <si>
-    <t>85,98%</t>
-  </si>
-  <si>
-    <t>67,97%</t>
-  </si>
-  <si>
-    <t>61,5%</t>
-  </si>
-  <si>
-    <t>80,5%</t>
-  </si>
-  <si>
-    <t>74,52%</t>
-  </si>
-  <si>
-    <t>71,4%</t>
-  </si>
-  <si>
-    <t>80,7%</t>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>38,17%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>83,46%</t>
+  </si>
+  <si>
+    <t>80,16%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
+  </si>
+  <si>
+    <t>72,02%</t>
+  </si>
+  <si>
+    <t>61,83%</t>
+  </si>
+  <si>
+    <t>87,03%</t>
+  </si>
+  <si>
+    <t>72,29%</t>
+  </si>
+  <si>
+    <t>85,77%</t>
   </si>
   <si>
     <t>Sevilla</t>
   </si>
   <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>89,61%</t>
-  </si>
-  <si>
-    <t>87,49%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>77,08%</t>
-  </si>
-  <si>
-    <t>74,03%</t>
-  </si>
-  <si>
-    <t>79,58%</t>
-  </si>
-  <si>
-    <t>83,31%</t>
-  </si>
-  <si>
-    <t>81,16%</t>
-  </si>
-  <si>
-    <t>85,33%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>85,59%</t>
-  </si>
-  <si>
-    <t>84,12%</t>
-  </si>
-  <si>
-    <t>86,76%</t>
-  </si>
-  <si>
-    <t>72,88%</t>
-  </si>
-  <si>
-    <t>71,28%</t>
-  </si>
-  <si>
-    <t>75,26%</t>
-  </si>
-  <si>
-    <t>78,84%</t>
-  </si>
-  <si>
-    <t>77,89%</t>
-  </si>
-  <si>
-    <t>80,18%</t>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>88,14%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>76,91%</t>
+  </si>
+  <si>
+    <t>74,01%</t>
+  </si>
+  <si>
+    <t>79,38%</t>
+  </si>
+  <si>
+    <t>85,3%</t>
+  </si>
+  <si>
+    <t>82,04%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>89,44%</t>
+  </si>
+  <si>
+    <t>74,42%</t>
+  </si>
+  <si>
+    <t>72,14%</t>
+  </si>
+  <si>
+    <t>78,51%</t>
+  </si>
+  <si>
+    <t>80,31%</t>
+  </si>
+  <si>
+    <t>78,8%</t>
+  </si>
+  <si>
+    <t>83,07%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -984,7 +984,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B87F9CE-445A-42DB-9E65-8DA230777FEA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC54D7A6-C615-490C-8583-4C78F241E102}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1105,7 +1105,7 @@
         <v>44</v>
       </c>
       <c r="D4" s="7">
-        <v>31457</v>
+        <v>35365</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1120,7 +1120,7 @@
         <v>111</v>
       </c>
       <c r="I4" s="7">
-        <v>51254</v>
+        <v>53312</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1135,7 +1135,7 @@
         <v>155</v>
       </c>
       <c r="N4" s="7">
-        <v>82710</v>
+        <v>88677</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1156,7 +1156,7 @@
         <v>287</v>
       </c>
       <c r="D5" s="7">
-        <v>228841</v>
+        <v>276078</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1171,7 +1171,7 @@
         <v>427</v>
       </c>
       <c r="I5" s="7">
-        <v>220149</v>
+        <v>236323</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1186,7 +1186,7 @@
         <v>714</v>
       </c>
       <c r="N5" s="7">
-        <v>448990</v>
+        <v>512400</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1207,7 +1207,7 @@
         <v>331</v>
       </c>
       <c r="D6" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1222,7 +1222,7 @@
         <v>538</v>
       </c>
       <c r="I6" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1237,7 +1237,7 @@
         <v>869</v>
       </c>
       <c r="N6" s="7">
-        <v>531700</v>
+        <v>601077</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1260,7 +1260,7 @@
         <v>54</v>
       </c>
       <c r="D7" s="7">
-        <v>65535</v>
+        <v>63358</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1275,7 +1275,7 @@
         <v>216</v>
       </c>
       <c r="I7" s="7">
-        <v>158729</v>
+        <v>147092</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1290,7 +1290,7 @@
         <v>270</v>
       </c>
       <c r="N7" s="7">
-        <v>224264</v>
+        <v>210450</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1311,7 +1311,7 @@
         <v>328</v>
       </c>
       <c r="D8" s="7">
-        <v>453762</v>
+        <v>455032</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1326,7 +1326,7 @@
         <v>501</v>
       </c>
       <c r="I8" s="7">
-        <v>395837</v>
+        <v>367877</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1341,7 +1341,7 @@
         <v>829</v>
       </c>
       <c r="N8" s="7">
-        <v>849600</v>
+        <v>822909</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1362,7 +1362,7 @@
         <v>382</v>
       </c>
       <c r="D9" s="7">
-        <v>519297</v>
+        <v>518390</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1377,7 +1377,7 @@
         <v>717</v>
       </c>
       <c r="I9" s="7">
-        <v>554566</v>
+        <v>514969</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1392,7 +1392,7 @@
         <v>1099</v>
       </c>
       <c r="N9" s="7">
-        <v>1073864</v>
+        <v>1033359</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1415,7 +1415,7 @@
         <v>77</v>
       </c>
       <c r="D10" s="7">
-        <v>59225</v>
+        <v>56592</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1430,7 +1430,7 @@
         <v>184</v>
       </c>
       <c r="I10" s="7">
-        <v>111913</v>
+        <v>103862</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1445,7 +1445,7 @@
         <v>261</v>
       </c>
       <c r="N10" s="7">
-        <v>171138</v>
+        <v>160454</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1466,7 +1466,7 @@
         <v>283</v>
       </c>
       <c r="D11" s="7">
-        <v>263015</v>
+        <v>259458</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1481,7 +1481,7 @@
         <v>352</v>
       </c>
       <c r="I11" s="7">
-        <v>261371</v>
+        <v>245266</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1496,7 +1496,7 @@
         <v>635</v>
       </c>
       <c r="N11" s="7">
-        <v>524386</v>
+        <v>504724</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1517,7 +1517,7 @@
         <v>360</v>
       </c>
       <c r="D12" s="7">
-        <v>322240</v>
+        <v>316050</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1532,7 +1532,7 @@
         <v>536</v>
       </c>
       <c r="I12" s="7">
-        <v>373284</v>
+        <v>349128</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1547,7 +1547,7 @@
         <v>896</v>
       </c>
       <c r="N12" s="7">
-        <v>695524</v>
+        <v>665178</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1570,46 +1570,46 @@
         <v>59</v>
       </c>
       <c r="D13" s="7">
-        <v>54254</v>
+        <v>51425</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>197</v>
       </c>
       <c r="I13" s="7">
-        <v>115646</v>
+        <v>107156</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>256</v>
       </c>
       <c r="N13" s="7">
-        <v>169899</v>
+        <v>158582</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1621,46 +1621,46 @@
         <v>233</v>
       </c>
       <c r="D14" s="7">
-        <v>267986</v>
+        <v>261132</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>402</v>
       </c>
       <c r="I14" s="7">
-        <v>312910</v>
+        <v>368562</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>635</v>
       </c>
       <c r="N14" s="7">
-        <v>580897</v>
+        <v>629692</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1672,7 +1672,7 @@
         <v>292</v>
       </c>
       <c r="D15" s="7">
-        <v>322240</v>
+        <v>312557</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1687,7 +1687,7 @@
         <v>599</v>
       </c>
       <c r="I15" s="7">
-        <v>428556</v>
+        <v>475718</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1702,7 +1702,7 @@
         <v>891</v>
       </c>
       <c r="N15" s="7">
-        <v>750796</v>
+        <v>788274</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1716,7 +1716,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1725,46 +1725,46 @@
         <v>33</v>
       </c>
       <c r="D16" s="7">
-        <v>22091</v>
+        <v>20020</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>103</v>
       </c>
       <c r="I16" s="7">
-        <v>47700</v>
+        <v>43327</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>136</v>
       </c>
       <c r="N16" s="7">
-        <v>69791</v>
+        <v>63347</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1776,46 +1776,46 @@
         <v>246</v>
       </c>
       <c r="D17" s="7">
-        <v>174657</v>
+        <v>158722</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>392</v>
       </c>
       <c r="I17" s="7">
-        <v>211813</v>
+        <v>215452</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>638</v>
       </c>
       <c r="N17" s="7">
-        <v>386469</v>
+        <v>374174</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1827,7 +1827,7 @@
         <v>279</v>
       </c>
       <c r="D18" s="7">
-        <v>196748</v>
+        <v>178742</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -1842,7 +1842,7 @@
         <v>495</v>
       </c>
       <c r="I18" s="7">
-        <v>259513</v>
+        <v>258779</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1857,7 +1857,7 @@
         <v>774</v>
       </c>
       <c r="N18" s="7">
-        <v>456260</v>
+        <v>437521</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -1871,7 +1871,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1880,46 +1880,46 @@
         <v>95</v>
       </c>
       <c r="D19" s="7">
-        <v>58747</v>
+        <v>56255</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>193</v>
       </c>
       <c r="I19" s="7">
-        <v>98253</v>
+        <v>91452</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>288</v>
       </c>
       <c r="N19" s="7">
-        <v>157000</v>
+        <v>147706</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1931,46 +1931,46 @@
         <v>276</v>
       </c>
       <c r="D20" s="7">
-        <v>218476</v>
+        <v>213381</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>267</v>
       </c>
       <c r="I20" s="7">
-        <v>177369</v>
+        <v>165604</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>543</v>
       </c>
       <c r="N20" s="7">
-        <v>395845</v>
+        <v>378986</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1982,7 +1982,7 @@
         <v>371</v>
       </c>
       <c r="D21" s="7">
-        <v>277223</v>
+        <v>269636</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -1997,7 +1997,7 @@
         <v>460</v>
       </c>
       <c r="I21" s="7">
-        <v>275622</v>
+        <v>257056</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -2012,7 +2012,7 @@
         <v>831</v>
       </c>
       <c r="N21" s="7">
-        <v>552845</v>
+        <v>526692</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2026,7 +2026,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2035,46 +2035,46 @@
         <v>112</v>
       </c>
       <c r="D22" s="7">
-        <v>107218</v>
+        <v>103280</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="H22" s="7">
         <v>366</v>
       </c>
       <c r="I22" s="7">
-        <v>257600</v>
+        <v>237613</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M22" s="7">
         <v>478</v>
       </c>
       <c r="N22" s="7">
-        <v>364818</v>
+        <v>340894</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>129</v>
+        <v>40</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2086,46 +2086,46 @@
         <v>487</v>
       </c>
       <c r="D23" s="7">
-        <v>520536</v>
+        <v>520999</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="H23" s="7">
         <v>594</v>
       </c>
       <c r="I23" s="7">
-        <v>546603</v>
+        <v>611652</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="M23" s="7">
         <v>1081</v>
       </c>
       <c r="N23" s="7">
-        <v>1067139</v>
+        <v>1132650</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>138</v>
+        <v>48</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2137,7 +2137,7 @@
         <v>599</v>
       </c>
       <c r="D24" s="7">
-        <v>627754</v>
+        <v>624279</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -2152,7 +2152,7 @@
         <v>960</v>
       </c>
       <c r="I24" s="7">
-        <v>804203</v>
+        <v>849265</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -2167,7 +2167,7 @@
         <v>1559</v>
       </c>
       <c r="N24" s="7">
-        <v>1431957</v>
+        <v>1473544</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -2181,7 +2181,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2190,46 +2190,46 @@
         <v>101</v>
       </c>
       <c r="D25" s="7">
-        <v>89301</v>
+        <v>76284</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H25" s="7">
         <v>274</v>
       </c>
       <c r="I25" s="7">
-        <v>199067</v>
+        <v>165731</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M25" s="7">
         <v>375</v>
       </c>
       <c r="N25" s="7">
-        <v>288368</v>
+        <v>242016</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2241,46 +2241,46 @@
         <v>661</v>
       </c>
       <c r="D26" s="7">
-        <v>770127</v>
+        <v>852436</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="H26" s="7">
         <v>788</v>
       </c>
       <c r="I26" s="7">
-        <v>669367</v>
+        <v>552000</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M26" s="7">
         <v>1449</v>
       </c>
       <c r="N26" s="7">
-        <v>1439494</v>
+        <v>1404436</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2292,7 +2292,7 @@
         <v>762</v>
       </c>
       <c r="D27" s="7">
-        <v>859428</v>
+        <v>928720</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>30</v>
@@ -2307,7 +2307,7 @@
         <v>1062</v>
       </c>
       <c r="I27" s="7">
-        <v>868434</v>
+        <v>717731</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -2322,7 +2322,7 @@
         <v>1824</v>
       </c>
       <c r="N27" s="7">
-        <v>1727862</v>
+        <v>1646452</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>30</v>
@@ -2345,46 +2345,46 @@
         <v>575</v>
       </c>
       <c r="D28" s="7">
-        <v>487829</v>
+        <v>462580</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>162</v>
+        <v>77</v>
       </c>
       <c r="H28" s="7">
         <v>1644</v>
       </c>
       <c r="I28" s="7">
-        <v>1040160</v>
+        <v>949546</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M28" s="7">
         <v>2219</v>
       </c>
       <c r="N28" s="7">
-        <v>1527989</v>
+        <v>1412125</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2396,13 +2396,13 @@
         <v>2801</v>
       </c>
       <c r="D29" s="7">
-        <v>2897399</v>
+        <v>2997237</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>170</v>
+        <v>87</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>171</v>
@@ -2411,7 +2411,7 @@
         <v>3723</v>
       </c>
       <c r="I29" s="7">
-        <v>2795421</v>
+        <v>2762734</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>172</v>
@@ -2426,7 +2426,7 @@
         <v>6524</v>
       </c>
       <c r="N29" s="7">
-        <v>5692820</v>
+        <v>5759972</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>175</v>
@@ -2447,7 +2447,7 @@
         <v>3376</v>
       </c>
       <c r="D30" s="7">
-        <v>3385228</v>
+        <v>3459817</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -2462,7 +2462,7 @@
         <v>5367</v>
       </c>
       <c r="I30" s="7">
-        <v>3835581</v>
+        <v>3712280</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -2477,7 +2477,7 @@
         <v>8743</v>
       </c>
       <c r="N30" s="7">
-        <v>7220809</v>
+        <v>7172097</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
